--- a/biology/Botanique/Neopaxillus/Neopaxillus.xlsx
+++ b/biology/Botanique/Neopaxillus/Neopaxillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neopaxillus est un genre de champignons de la famille des Serpulaceae selon MycoBank                                            (30 mai 2013)[1] ou de la famille des Inocybaceae selon Index Fungorum                                      (30 mai 2013)[2]. 
-Neopaxillus, était autrefois[Quand ?] classé dans la famille des Serpulaceae est maintenant[Quand ?] classé dans la famille des Crepidotaceae[3][réf. incomplète], famille de champignons basidiomycètes de l'ordre des Agaricales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neopaxillus est un genre de champignons de la famille des Serpulaceae selon MycoBank                                            (30 mai 2013) ou de la famille des Inocybaceae selon Index Fungorum                                      (30 mai 2013). 
+Neopaxillus, était autrefois[Quand ?] classé dans la famille des Serpulaceae est maintenant[Quand ?] classé dans la famille des Crepidotaceae[réf. incomplète], famille de champignons basidiomycètes de l'ordre des Agaricales.
 Le genre Neopaxillus contient cinq espèces dont une dernièrement découverte.[réf. nécessaire]
 Neopaxillus dominicanus est morphologiquement proche de Neopaxillus echinospermus, l'espèce type du genre. Basé sur des analyses comparative de séquences d'ADNr, le genre Neopaxillus, autrefois placés dans la famille des Serpulaceae de l'ordre des Boletales, est maintenant placé au sein des Agaricales où il aurait comme groupe-frère du genre Crepidotus (famille des Crepidotaceae)[réf. nécessaire], et Neopaxillus dominicanus est soutenue comme indépendant de Neopaxillus echinospermus[incompréhensible]. Enfin, selon les dernières analyses morphologiques et moléculaires, deux collections de Neopaxillus echinospermus en provenance du Mexique se réfèrent à Neopaxillus dominicanus.[réf. nécessaire]
 </t>
@@ -514,28 +526,30 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 mai 2013)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 mai 2013) :
 Neopaxillus bryogenus
 Neopaxillus echinospermus
 Neopaxillus echinosporus
 Neopaxillus plumbeus
 Neopaxillus reticulatus
-Selon Index Fungorum                                      (30 mai 2013)[2] :
+Selon Index Fungorum                                      (30 mai 2013) :
 Neopaxillus bryogenus E. Horak 1980
 Neopaxillus dominicanus Angelini &amp; Vizzini 2012
 Neopaxillus echinospermus (Speg.) Singer 1951
 Neopaxillus plumbeus Singer &amp; Lodge 1989
 Neopaxillus reticulatus (Petch) Pegler 1986
-Selon MycoBank                                            (30 mai 2013)[1] :
+Selon MycoBank                                            (30 mai 2013) :
 Neopaxillus bryogenus
 Neopaxillus dominicanus
 Neopaxillus echinosporus
 Neopaxillus echinospermus
 Neopaxillus plumbeus
 Neopaxillus reticulatus
-Selon NCBI  (30 mai 2013)[5] :
+Selon NCBI  (30 mai 2013) :
 Neopaxillus dominicanus
 Neopaxillus echinospermus
 Neopaxillus plumbeus</t>
